--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,39 +5,40 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myominnoo/Downloads/CV-master/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myominnoo/Library/CloudStorage/GoogleDrive-labmckinnon2019@gmail.com/My Drive/Myo/github/cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3D9F2F-76F0-C342-AB20-A1FDA3147909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AE9EB7-7E40-734A-A8FD-69009F722B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="760" windowWidth="33660" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="760" windowWidth="16820" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
     <sheet name="education-details" sheetId="5" r:id="rId2"/>
-    <sheet name="complex-analytics" sheetId="16" r:id="rId3"/>
-    <sheet name="employment" sheetId="3" r:id="rId4"/>
-    <sheet name="grants-details" sheetId="6" r:id="rId5"/>
-    <sheet name="grants" sheetId="2" r:id="rId6"/>
-    <sheet name="positions" sheetId="4" r:id="rId7"/>
-    <sheet name="skills" sheetId="7" r:id="rId8"/>
-    <sheet name="skills-details" sheetId="13" r:id="rId9"/>
-    <sheet name="services" sheetId="14" r:id="rId10"/>
-    <sheet name="programming" sheetId="15" r:id="rId11"/>
-    <sheet name="themes" sheetId="8" r:id="rId12"/>
-    <sheet name="affiliations" sheetId="9" r:id="rId13"/>
-    <sheet name="presentations" sheetId="11" r:id="rId14"/>
-    <sheet name="teaching" sheetId="12" r:id="rId15"/>
+    <sheet name="references" sheetId="17" r:id="rId3"/>
+    <sheet name="complex-analytics" sheetId="16" r:id="rId4"/>
+    <sheet name="employment" sheetId="3" r:id="rId5"/>
+    <sheet name="grants-details" sheetId="6" r:id="rId6"/>
+    <sheet name="grants" sheetId="2" r:id="rId7"/>
+    <sheet name="positions" sheetId="4" r:id="rId8"/>
+    <sheet name="skills" sheetId="7" r:id="rId9"/>
+    <sheet name="skills-details" sheetId="13" r:id="rId10"/>
+    <sheet name="services" sheetId="14" r:id="rId11"/>
+    <sheet name="programming" sheetId="15" r:id="rId12"/>
+    <sheet name="themes" sheetId="8" r:id="rId13"/>
+    <sheet name="affiliations" sheetId="9" r:id="rId14"/>
+    <sheet name="presentations" sheetId="11" r:id="rId15"/>
+    <sheet name="teaching" sheetId="12" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">themes!$A$1:$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">themes!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="374">
   <si>
     <t>Prince of Songkla University</t>
   </si>
@@ -444,9 +445,6 @@
     <t xml:space="preserve">Supervised and mentored over 10 participants </t>
   </si>
   <si>
-    <t>Generated over 25 research outputs published in peer-reviewed international journals.</t>
-  </si>
-  <si>
     <t>Organized and led the third National SORT-IT course, as well as a workshop on TB research agenda in Myanmar.</t>
   </si>
   <si>
@@ -456,9 +454,6 @@
     <t>Conducted a feasibility study to assess the accuracy, reliability, and viability of calculating under-five mortality through repeated malaria surveys.</t>
   </si>
   <si>
-    <t>Currently involved in projects in Nairobi, Kenya that aim to enhance understanding of the epidemiology and transmission dynamics of HPV in female sex workers and men who have sex with men (MSM).</t>
-  </si>
-  <si>
     <t>Learning bioinformatics workflows, specifically focusing on pipelines for bulk and single-cell RNA sequencing.</t>
   </si>
   <si>
@@ -468,9 +463,6 @@
     <t>Published five first-authored papers, presented at the CDC Migration Summit in Singapore, and received the best oral presentation award in Indonesia.</t>
   </si>
   <si>
-    <t>Currently exploring health service research, access to health, mortality, and maternal and child health-related projects and secondary data to develop concept notes, protocols, and publications independently.</t>
-  </si>
-  <si>
     <t>Enhanced daily oversight of a team of 15 or more employees to promote streamlined workflows and enhanced communication.</t>
   </si>
   <si>
@@ -522,9 +514,6 @@
     <t>Facilitating evidence-based policy changes by conducting operational research.</t>
   </si>
   <si>
-    <t>Advancing evidence-based policy changes through the implementation of operational research.</t>
-  </si>
-  <si>
     <t>Health insurance and out-of-pocket expenditure from symptoms to tuberculosis diagnosis among Myanmar migrants in a border area of Thailand</t>
   </si>
   <si>
@@ -858,9 +847,6 @@
     <t>Member</t>
   </si>
   <si>
-    <t>International peer-reviewed journals</t>
-  </si>
-  <si>
     <t>Reviewer</t>
   </si>
   <si>
@@ -1057,6 +1043,123 @@
   </si>
   <si>
     <t>Nepal &amp; Sri Lanka</t>
+  </si>
+  <si>
+    <t>Currently leading the epidemiological aspects of projects in Nairobi, Kenya that aim to enhance understanding of the epidemiology and transmission dynamics of HPV in female sex workers and men who have sex with men (MSM).</t>
+  </si>
+  <si>
+    <t>Initiated collaboration with PHDA and HOYMAS to start research projects in epidemiology aimed at gaining a better understanding of health service access, utilization patterns, mortality rates, and maternal and child health outcomes among sex workers, including the MSM population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This work resulted in a manuscript under review, two manuscripts are under writing, and a few other more research projects are under preparation and data collection. </t>
+  </si>
+  <si>
+    <t>This work resulted in a manuscript (under writing) and a completed technical report that provides evidence and insights on malaria preparedness in Papua New Guinea.</t>
+  </si>
+  <si>
+    <t>Generated over 25 research outputs and publications in peer-reviewed international journals.</t>
+  </si>
+  <si>
+    <t>Served as an editor for three manuscript submissions, overseeing the peer review process, making editorial decisions, and ensuring that the submissions met the standards of the journal.</t>
+  </si>
+  <si>
+    <t>Produced a technical report and policy document to inform the Thai government on healthcare access issues for marginalized populations, and organized a dissemination meeting with local, regional, and international stakeholders to share our findings and recommendations.</t>
+  </si>
+  <si>
+    <t>Supervised over 10 participants and collaborated on more than 25 publications that have contributed to the advancement of evidence-based policy changes in South Asia through the implementation of operational research.</t>
+  </si>
+  <si>
+    <t>This work produced three important papers that offer valuable evidence to enhance health insurance coverage and healthcare access for migrants in Thailand, providing policymakers with insights and recommendations to address the challenges faced by these populations.</t>
+  </si>
+  <si>
+    <t>Rady Faculty of Health Sciences Graduate Studentship Program</t>
+  </si>
+  <si>
+    <t>Ad Hoc Reviewer</t>
+  </si>
+  <si>
+    <t>50+ Verified Reviews in International peer-reviewed journals</t>
+  </si>
+  <si>
+    <t>Global Health Research and Policy</t>
+  </si>
+  <si>
+    <t>Journal of Health Research</t>
+  </si>
+  <si>
+    <t>AIDS Research and Human Retroviruses</t>
+  </si>
+  <si>
+    <t>African Journal of AIDS Research</t>
+  </si>
+  <si>
+    <t>Public Health Action</t>
+  </si>
+  <si>
+    <t>BMC Health Service Research</t>
+  </si>
+  <si>
+    <t>International Journal of STD &amp; AIDS</t>
+  </si>
+  <si>
+    <t>Prof. Tippawan Liabsuetrakul</t>
+  </si>
+  <si>
+    <t>Honorary Prof. Virasakdi Chongsuvivatwong</t>
+  </si>
+  <si>
+    <t>Honorary Prof. Anthony Harries</t>
+  </si>
+  <si>
+    <t>Prof. Manuel Hetzel</t>
+  </si>
+  <si>
+    <t>Prof. Lyle McKinnon</t>
+  </si>
+  <si>
+    <t>Senior Advisor &amp; Former Director of Research</t>
+  </si>
+  <si>
+    <t>ltippawa@yahoo.com</t>
+  </si>
+  <si>
+    <t>manuel.hetzel@swisstph.ch</t>
+  </si>
+  <si>
+    <t>lyle.mckinnon@umanitoba.ca</t>
+  </si>
+  <si>
+    <t>cvirasak@gmail.com</t>
+  </si>
+  <si>
+    <t>Prof. Suman Majumdar</t>
+  </si>
+  <si>
+    <t>Deputy Head of Unit &amp; Professor of Epidemiology</t>
+  </si>
+  <si>
+    <t>Associate Professor</t>
+  </si>
+  <si>
+    <t>Advisor &amp; Former Head, Department of Epidemiology</t>
+  </si>
+  <si>
+    <t>suman.majumdar@burnet.edu.au</t>
+  </si>
+  <si>
+    <t>adharries@theunion.org</t>
+  </si>
+  <si>
+    <t>Deputy Program Director (Health Security and Know-C19), Co-head of the Tuberculosis Elimination and Implementation</t>
+  </si>
+  <si>
+    <t>Burnet Institute</t>
+  </si>
+  <si>
+    <t>Head of Department of Epidemiology &amp; Director of WHO-Collaboration Center on Epidemiology</t>
+  </si>
+  <si>
+    <t>Swiss TPH (University of Basel)</t>
   </si>
 </sst>
 </file>
@@ -1556,11 +1659,14 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1967,11 +2073,435 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF41CE9-B658-FE46-8104-3F5631EE5502}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DDA6C-B8DA-B749-8A70-7FA65DE7D0DD}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1982,13 +2512,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1996,109 +2526,208 @@
         <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B4" t="s">
-        <v>279</v>
+        <v>269</v>
+      </c>
+      <c r="B4">
+        <v>2022</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" t="s">
         <v>272</v>
-      </c>
-      <c r="B7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>273</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>345</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2106,7 +2735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA15A5E-B6C4-B44F-A71A-7BF5A2E3BDB6}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2122,105 +2751,105 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" t="s">
         <v>287</v>
-      </c>
-      <c r="E1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E2" t="s">
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E3" t="s">
         <v>78</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" t="s">
         <v>301</v>
       </c>
-      <c r="E4" t="s">
-        <v>306</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" t="s">
         <v>302</v>
       </c>
-      <c r="C5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E5" t="s">
-        <v>307</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2228,16 +2857,16 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -2246,75 +2875,75 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C9" t="s">
-        <v>305</v>
-      </c>
-      <c r="E9" t="s">
-        <v>306</v>
-      </c>
-      <c r="F9" t="s">
-        <v>308</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +2967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66643AF8-2132-E840-A117-B1043F829FCD}">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -2399,7 +3028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4413920C-0DB5-4148-8276-B7579CE861A6}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2480,7 +3109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D2CC01-E345-0A42-AD54-05E54207424C}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2509,138 +3138,138 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" t="s">
         <v>181</v>
       </c>
-      <c r="D2" t="s">
-        <v>185</v>
-      </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" t="s">
         <v>183</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="s">
         <v>170</v>
       </c>
-      <c r="C7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" t="s">
-        <v>174</v>
-      </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2648,7 +3277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C0C4C8-97BB-0E4A-9CEC-3116FE6C6E28}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2677,53 +3306,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2731,16 +3360,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2748,16 +3377,16 @@
         <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2765,16 +3394,16 @@
         <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2795,8 +3424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6904589E-10A3-DC4A-A244-AD92D47B8D56}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2923,13 +3552,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D5">
         <v>2016</v>
@@ -2941,13 +3570,13 @@
         <v>2016</v>
       </c>
       <c r="G5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2958,7 +3587,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D6">
         <v>2007</v>
@@ -2976,7 +3605,7 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2985,6 +3614,134 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4A761A-00A5-8347-A34C-CE613DB2242D}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{490203B1-4FA9-A342-84B1-C43D24CC3A75}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{494518CB-6889-DF48-9BF7-6A0F205DF5C1}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{DA461EE9-1D6A-9D41-BE15-627CCC107956}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{6D6C98CE-AC0A-A748-B83A-3AC760EE9D83}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{608D5ED6-F41F-3448-A959-D4EADC16071E}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{492F8860-270A-9C4F-8C2D-9D91D02FF340}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC82878-3C80-6C43-A1C4-0236AC6CB76C}">
   <dimension ref="C2:C11"/>
   <sheetViews>
@@ -3013,12 +3770,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE00790D-A8FD-D044-B711-36915F4C9436}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3080,7 +3837,7 @@
         <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3106,7 +3863,7 @@
         <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3132,7 +3889,7 @@
         <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3158,70 +3915,61 @@
         <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>2021</v>
-      </c>
-      <c r="E6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6">
         <v>2022</v>
       </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D7">
-        <v>2021</v>
-      </c>
-      <c r="E7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7">
         <v>2022</v>
       </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
       <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>127</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
@@ -3239,18 +3987,18 @@
         <v>2022</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
         <v>48</v>
@@ -3268,13 +4016,13 @@
         <v>2022</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>129</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3303,7 +4051,7 @@
         <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3332,317 +4080,317 @@
         <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>113</v>
       </c>
       <c r="D12">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G12" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>113</v>
       </c>
       <c r="D13">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G13" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>113</v>
       </c>
       <c r="D14">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>113</v>
       </c>
       <c r="D15">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E15" t="s">
         <v>115</v>
       </c>
       <c r="F15">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>113</v>
       </c>
       <c r="D16">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E16" t="s">
         <v>115</v>
       </c>
       <c r="F16">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>113</v>
       </c>
       <c r="D17">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E17" t="s">
         <v>115</v>
       </c>
       <c r="F17">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D18">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E18" t="s">
         <v>115</v>
       </c>
       <c r="F18">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H18" t="s">
         <v>54</v>
       </c>
       <c r="I18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D19">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E19" t="s">
         <v>115</v>
       </c>
       <c r="F19">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
         <v>54</v>
       </c>
       <c r="I19" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D20">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E20" t="s">
         <v>115</v>
       </c>
       <c r="F20">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s">
         <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>120</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D21">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E21" t="s">
         <v>115</v>
       </c>
       <c r="F21">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
         <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D22">
         <v>2014</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F22">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G22" t="s">
         <v>34</v>
@@ -3651,27 +4399,27 @@
         <v>54</v>
       </c>
       <c r="I22" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D23">
         <v>2014</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F23">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G23" t="s">
         <v>34</v>
@@ -3680,27 +4428,27 @@
         <v>54</v>
       </c>
       <c r="I23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D24">
         <v>2014</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F24">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
@@ -3709,7 +4457,123 @@
         <v>54</v>
       </c>
       <c r="I24" t="s">
-        <v>145</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25">
+        <v>2014</v>
+      </c>
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25">
+        <v>2016</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26">
+        <v>2014</v>
+      </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26">
+        <v>2015</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27">
+        <v>2014</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27">
+        <v>2015</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28">
+        <v>2014</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28">
+        <v>2015</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3717,9 +4581,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845AC810-59FB-EB45-94FC-CC74BA647BFA}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="161" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -3746,7 +4610,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -3758,119 +4622,124 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
         <v>154</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>161</v>
+      <c r="E11" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -3878,7 +4747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE308977-F098-3A4E-914F-8874AE2FF632}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3951,7 +4820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2ECBA7-5F36-3249-9439-B5B8EF52423F}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -4084,7 +4953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF2EFF9-8E00-CC48-92B2-E56C7B37235D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -4185,428 +5054,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF41CE9-B658-FE46-8104-3F5631EE5502}">
-  <dimension ref="A1:C45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>267</v>
-      </c>
-      <c r="B11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>267</v>
-      </c>
-      <c r="B13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>236</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>236</v>
-      </c>
-      <c r="B20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>236</v>
-      </c>
-      <c r="B21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>236</v>
-      </c>
-      <c r="B22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>236</v>
-      </c>
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>237</v>
-      </c>
-      <c r="B24" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>237</v>
-      </c>
-      <c r="B25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>237</v>
-      </c>
-      <c r="B26" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>237</v>
-      </c>
-      <c r="B27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>237</v>
-      </c>
-      <c r="B28" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>257</v>
-      </c>
-      <c r="B29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>257</v>
-      </c>
-      <c r="B30" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>257</v>
-      </c>
-      <c r="B31" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>257</v>
-      </c>
-      <c r="B32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>257</v>
-      </c>
-      <c r="B33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>267</v>
-      </c>
-      <c r="B34" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>258</v>
-      </c>
-      <c r="B35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>258</v>
-      </c>
-      <c r="B36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>258</v>
-      </c>
-      <c r="B37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>258</v>
-      </c>
-      <c r="B38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>258</v>
-      </c>
-      <c r="B39" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>258</v>
-      </c>
-      <c r="B40" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>258</v>
-      </c>
-      <c r="B41" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>258</v>
-      </c>
-      <c r="B42" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>263</v>
-      </c>
-      <c r="B43" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>263</v>
-      </c>
-      <c r="B44" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>263</v>
-      </c>
-      <c r="B45" t="s">
-        <v>265</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myominnoo/Library/CloudStorage/GoogleDrive-labmckinnon2019@gmail.com/My Drive/Myo/github/cv/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Myo\github\cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AE9EB7-7E40-734A-A8FD-69009F722B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418FDA57-2589-48B7-A1B4-7A3391D552AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="760" windowWidth="16820" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="378">
   <si>
     <t>Prince of Songkla University</t>
   </si>
@@ -1160,6 +1160,18 @@
   </si>
   <si>
     <t>Swiss TPH (University of Basel)</t>
+  </si>
+  <si>
+    <t>CAHR 2023</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Apr 2023</t>
+  </si>
+  <si>
+    <t>Single Cell Transcriptomics Delineate Divergent Localizations Of Tissue-Resident memory T Cells Across The Human Cervical Mucosa</t>
   </si>
 </sst>
 </file>
@@ -2029,12 +2041,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2045,7 +2057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2056,7 +2068,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2080,13 +2092,13 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -2097,7 +2109,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -2108,7 +2120,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -2119,7 +2131,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -2130,7 +2142,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -2141,7 +2153,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>263</v>
       </c>
@@ -2152,7 +2164,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>263</v>
       </c>
@@ -2163,7 +2175,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>263</v>
       </c>
@@ -2171,7 +2183,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>263</v>
       </c>
@@ -2179,7 +2191,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>263</v>
       </c>
@@ -2187,7 +2199,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>263</v>
       </c>
@@ -2195,7 +2207,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>263</v>
       </c>
@@ -2203,7 +2215,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>263</v>
       </c>
@@ -2211,7 +2223,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>238</v>
       </c>
@@ -2222,7 +2234,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>238</v>
       </c>
@@ -2233,7 +2245,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>238</v>
       </c>
@@ -2244,7 +2256,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>238</v>
       </c>
@@ -2255,7 +2267,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>232</v>
       </c>
@@ -2263,7 +2275,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>232</v>
       </c>
@@ -2271,7 +2283,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>232</v>
       </c>
@@ -2279,7 +2291,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>232</v>
       </c>
@@ -2287,7 +2299,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>232</v>
       </c>
@@ -2295,7 +2307,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>232</v>
       </c>
@@ -2303,7 +2315,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>233</v>
       </c>
@@ -2311,7 +2323,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>233</v>
       </c>
@@ -2319,7 +2331,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>233</v>
       </c>
@@ -2327,7 +2339,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>233</v>
       </c>
@@ -2335,7 +2347,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>233</v>
       </c>
@@ -2343,7 +2355,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>253</v>
       </c>
@@ -2351,7 +2363,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>253</v>
       </c>
@@ -2362,7 +2374,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>253</v>
       </c>
@@ -2373,7 +2385,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>253</v>
       </c>
@@ -2381,7 +2393,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>253</v>
       </c>
@@ -2392,7 +2404,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>263</v>
       </c>
@@ -2403,7 +2415,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>254</v>
       </c>
@@ -2411,7 +2423,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>254</v>
       </c>
@@ -2419,7 +2431,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>254</v>
       </c>
@@ -2427,7 +2439,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>254</v>
       </c>
@@ -2435,7 +2447,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>254</v>
       </c>
@@ -2443,7 +2455,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>254</v>
       </c>
@@ -2451,7 +2463,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>254</v>
       </c>
@@ -2459,7 +2471,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>254</v>
       </c>
@@ -2467,7 +2479,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>259</v>
       </c>
@@ -2475,7 +2487,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>259</v>
       </c>
@@ -2483,7 +2495,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>259</v>
       </c>
@@ -2504,13 +2516,13 @@
       <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -2521,7 +2533,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -2532,7 +2544,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>266</v>
       </c>
@@ -2543,7 +2555,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>269</v>
       </c>
@@ -2554,7 +2566,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>275</v>
       </c>
@@ -2565,7 +2577,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>276</v>
       </c>
@@ -2576,7 +2588,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -2587,7 +2599,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>268</v>
       </c>
@@ -2598,7 +2610,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>270</v>
       </c>
@@ -2609,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2620,7 +2632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -2631,7 +2643,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>345</v>
       </c>
@@ -2642,7 +2654,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>345</v>
       </c>
@@ -2653,7 +2665,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>345</v>
       </c>
@@ -2664,7 +2676,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>345</v>
       </c>
@@ -2675,7 +2687,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>345</v>
       </c>
@@ -2686,7 +2698,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>345</v>
       </c>
@@ -2697,7 +2709,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>345</v>
       </c>
@@ -2708,7 +2720,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>345</v>
       </c>
@@ -2719,7 +2731,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>345</v>
       </c>
@@ -2743,13 +2755,13 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>280</v>
       </c>
@@ -2772,7 +2784,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>285</v>
       </c>
@@ -2792,7 +2804,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>315</v>
       </c>
@@ -2812,7 +2824,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -2832,7 +2844,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>291</v>
       </c>
@@ -2852,7 +2864,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -2870,7 +2882,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -2888,7 +2900,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>324</v>
       </c>
@@ -2906,7 +2918,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -2926,7 +2938,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>299</v>
       </c>
@@ -2975,49 +2987,49 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -3036,9 +3048,9 @@
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3049,7 +3061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -3060,7 +3072,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -3071,7 +3083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -3082,7 +3094,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -3093,7 +3105,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -3111,15 +3123,18 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D2CC01-E345-0A42-AD54-05E54207424C}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="161" workbookViewId="0">
-      <selection sqref="A1:E9"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="48.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3136,26 +3151,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>377</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>374</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>375</v>
       </c>
       <c r="E2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>178</v>
@@ -3170,105 +3185,122 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
         <v>161</v>
       </c>
       <c r="E5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>165</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" t="s">
         <v>169</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>170</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>176</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3285,9 +3317,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3304,7 +3336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>194</v>
       </c>
@@ -3321,7 +3353,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -3338,7 +3370,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -3355,7 +3387,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -3372,7 +3404,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -3389,7 +3421,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -3406,13 +3438,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
     </row>
   </sheetData>
@@ -3428,13 +3460,13 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="6" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="76.5" customWidth="1"/>
+    <col min="2" max="6" width="8.81640625" style="1"/>
+    <col min="9" max="9" width="76.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3463,7 +3495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3492,7 +3524,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3521,7 +3553,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3550,7 +3582,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>333</v>
       </c>
@@ -3579,7 +3611,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3617,17 +3649,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4A761A-00A5-8347-A34C-CE613DB2242D}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3644,7 +3676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>366</v>
       </c>
@@ -3658,7 +3690,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>365</v>
       </c>
@@ -3672,7 +3704,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>372</v>
       </c>
@@ -3686,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>367</v>
       </c>
@@ -3700,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>359</v>
       </c>
@@ -3714,7 +3746,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>370</v>
       </c>
@@ -3749,20 +3781,20 @@
       <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C9" s="3"/>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C11" s="2"/>
     </row>
   </sheetData>
@@ -3778,14 +3810,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3814,7 +3846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -3840,7 +3872,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -3866,7 +3898,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -3892,7 +3924,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -3918,7 +3950,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3944,7 +3976,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -3967,7 +3999,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>145</v>
       </c>
@@ -3996,7 +4028,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -4025,7 +4057,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -4054,7 +4086,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -4083,7 +4115,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -4112,7 +4144,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -4141,7 +4173,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -4170,7 +4202,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -4199,7 +4231,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -4228,7 +4260,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -4257,7 +4289,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -4286,7 +4318,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -4315,7 +4347,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -4344,7 +4376,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -4373,7 +4405,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -4402,7 +4434,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -4431,7 +4463,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -4460,7 +4492,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -4489,7 +4521,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4518,7 +4550,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -4547,7 +4579,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4589,9 +4621,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4608,7 +4640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -4625,12 +4657,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4647,12 +4679,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4669,12 +4701,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -4691,7 +4723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -4708,7 +4740,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -4725,7 +4757,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>150</v>
       </c>
@@ -4755,12 +4787,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4771,7 +4803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -4782,7 +4814,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -4793,7 +4825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -4804,7 +4836,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -4828,15 +4860,15 @@
       <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="47.5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="1"/>
+    <col min="3" max="3" width="47.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4850,7 +4882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -4864,7 +4896,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -4878,7 +4910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -4892,7 +4924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -4906,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -4920,7 +4952,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -4934,7 +4966,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -4961,9 +4993,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4971,7 +5003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -4979,7 +5011,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -4987,7 +5019,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -4995,7 +5027,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -5003,7 +5035,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -5011,7 +5043,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -5019,7 +5051,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -5027,7 +5059,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -5035,7 +5067,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -5043,7 +5075,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>81</v>
       </c>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Myo\github\cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myominnoo/Documents/GitHub/cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418FDA57-2589-48B7-A1B4-7A3391D552AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774DB14F-0EE2-514F-9E1B-A000332BD32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="500" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">themes!$A$1:$A$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterate="1" iterateCount="50"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="384">
   <si>
     <t>Prince of Songkla University</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Post-doctoral Fellow</t>
   </si>
   <si>
-    <t>May 2022 - Present</t>
-  </si>
-  <si>
     <t>Aug 2021 - April 2022</t>
   </si>
   <si>
@@ -454,9 +451,6 @@
     <t>Conducted a feasibility study to assess the accuracy, reliability, and viability of calculating under-five mortality through repeated malaria surveys.</t>
   </si>
   <si>
-    <t>Learning bioinformatics workflows, specifically focusing on pipelines for bulk and single-cell RNA sequencing.</t>
-  </si>
-  <si>
     <t>Developed interactive Shiny projects and automated dashboards for improved monitoring and communication purposes.</t>
   </si>
   <si>
@@ -1045,15 +1039,9 @@
     <t>Nepal &amp; Sri Lanka</t>
   </si>
   <si>
-    <t>Currently leading the epidemiological aspects of projects in Nairobi, Kenya that aim to enhance understanding of the epidemiology and transmission dynamics of HPV in female sex workers and men who have sex with men (MSM).</t>
-  </si>
-  <si>
     <t>Initiated collaboration with PHDA and HOYMAS to start research projects in epidemiology aimed at gaining a better understanding of health service access, utilization patterns, mortality rates, and maternal and child health outcomes among sex workers, including the MSM population.</t>
   </si>
   <si>
-    <t xml:space="preserve">This work resulted in a manuscript under review, two manuscripts are under writing, and a few other more research projects are under preparation and data collection. </t>
-  </si>
-  <si>
     <t>This work resulted in a manuscript (under writing) and a completed technical report that provides evidence and insights on malaria preparedness in Papua New Guinea.</t>
   </si>
   <si>
@@ -1172,6 +1160,36 @@
   </si>
   <si>
     <t>Single Cell Transcriptomics Delineate Divergent Localizations Of Tissue-Resident memory T Cells Across The Human Cervical Mucosa</t>
+  </si>
+  <si>
+    <t>May 2022 - Oct 2023</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>I led the epidemiological analyses of projects in Kenya that aim to enhance understanding of the epidemiology and transmission dynamics of HPV in female sex workers and men who have sex with men (MSM).</t>
+  </si>
+  <si>
+    <t>I also contributed to creating bioinformatics pipelines, specifically focusing on pipelines for bulk and single-cell RNA sequencing, and trained PhD students on these workflows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This work resulted in a peer-reviewed paper, two manuscripts are under writing, and a successful co-authored grant. </t>
+  </si>
+  <si>
+    <t>Epidemiologist</t>
+  </si>
+  <si>
+    <t>Oct 2023 - Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October </t>
+  </si>
+  <si>
+    <t>Waapihk Research</t>
+  </si>
+  <si>
+    <t>Delving into the field of indigenous health and health economics in Canada</t>
   </si>
 </sst>
 </file>
@@ -2041,12 +2059,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2057,7 +2075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2065,10 +2083,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2094,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2092,415 +2110,415 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" t="s">
         <v>201</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>202</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
         <v>204</v>
       </c>
-      <c r="B2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>231</v>
       </c>
-      <c r="C3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>252</v>
+      </c>
+      <c r="B42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>263</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B43" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B15" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>232</v>
-      </c>
-      <c r="B19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>232</v>
-      </c>
-      <c r="B21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>232</v>
-      </c>
-      <c r="B22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>233</v>
-      </c>
-      <c r="B25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>233</v>
-      </c>
-      <c r="B26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>233</v>
-      </c>
-      <c r="B27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>233</v>
-      </c>
-      <c r="B28" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>253</v>
-      </c>
-      <c r="B29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>253</v>
-      </c>
-      <c r="B30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>253</v>
-      </c>
-      <c r="B31" t="s">
-        <v>215</v>
-      </c>
-      <c r="C31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>253</v>
-      </c>
-      <c r="B32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>253</v>
-      </c>
-      <c r="B33" t="s">
-        <v>217</v>
-      </c>
-      <c r="C33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>263</v>
-      </c>
-      <c r="B34" t="s">
-        <v>219</v>
-      </c>
-      <c r="C34" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>254</v>
-      </c>
-      <c r="B35" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>254</v>
-      </c>
-      <c r="B36" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>254</v>
-      </c>
-      <c r="B37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>254</v>
-      </c>
-      <c r="B38" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>254</v>
-      </c>
-      <c r="B39" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>254</v>
-      </c>
-      <c r="B40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>254</v>
-      </c>
-      <c r="B41" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>254</v>
-      </c>
-      <c r="B42" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>257</v>
+      </c>
+      <c r="B44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" t="s">
         <v>259</v>
-      </c>
-      <c r="B43" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>259</v>
-      </c>
-      <c r="B44" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>259</v>
-      </c>
-      <c r="B45" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2516,112 +2534,112 @@
       <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
         <v>201</v>
       </c>
-      <c r="B1" t="s">
-        <v>203</v>
-      </c>
       <c r="C1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B4">
         <v>2022</v>
       </c>
       <c r="C4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s">
         <v>275</v>
-      </c>
-      <c r="B5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" t="s">
-        <v>277</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2632,114 +2650,114 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2755,207 +2773,207 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" t="s">
         <v>282</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>283</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="B7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" t="s">
         <v>301</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="G9" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>297</v>
       </c>
-      <c r="C5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E6" t="s">
-        <v>323</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" t="s">
-        <v>321</v>
-      </c>
-      <c r="E7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" t="s">
         <v>305</v>
       </c>
-      <c r="C9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F9" t="s">
-        <v>303</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>299</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>306</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="E10" t="s">
-        <v>308</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2987,51 +3005,51 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3048,9 +3066,9 @@
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3061,59 +3079,59 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>97</v>
       </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
       <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
         <v>66</v>
       </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3125,16 +3143,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D2CC01-E345-0A42-AD54-05E54207424C}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+    <sheetView zoomScale="161" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" customWidth="1"/>
+    <col min="1" max="1" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3151,157 +3169,157 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" t="s">
         <v>181</v>
       </c>
-      <c r="E3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" t="s">
         <v>181</v>
       </c>
-      <c r="E4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>169</v>
       </c>
-      <c r="D8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
         <v>174</v>
-      </c>
-      <c r="E9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" t="s">
-        <v>176</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3317,9 +3335,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3336,115 +3354,115 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
     </row>
   </sheetData>
@@ -3460,13 +3478,13 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="6" width="8.81640625" style="1"/>
-    <col min="9" max="9" width="76.453125" customWidth="1"/>
+    <col min="2" max="6" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3474,16 +3492,16 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>109</v>
-      </c>
-      <c r="F1" t="s">
-        <v>110</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -3495,7 +3513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3503,13 +3521,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2">
         <v>2018</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -3521,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3532,13 +3550,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3">
         <v>2018</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3">
         <v>2021</v>
@@ -3550,10 +3568,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3561,13 +3579,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4">
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4">
         <v>2021</v>
@@ -3579,39 +3597,39 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D5">
         <v>2016</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5">
         <v>2016</v>
       </c>
       <c r="G5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3619,13 +3637,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6">
         <v>2007</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6">
         <v>2012</v>
@@ -3634,10 +3652,10 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3653,13 +3671,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3676,88 +3694,88 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3781,20 +3799,20 @@
       <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
     </row>
   </sheetData>
@@ -3804,20 +3822,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE00790D-A8FD-D044-B711-36915F4C9436}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3825,16 +3843,16 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>109</v>
-      </c>
-      <c r="F1" t="s">
-        <v>110</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -3846,203 +3864,218 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>379</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>380</v>
       </c>
       <c r="C2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="E2" t="s">
         <v>111</v>
       </c>
-      <c r="D2">
-        <v>2022</v>
-      </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>382</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3">
         <v>2022</v>
       </c>
-      <c r="F3" t="s">
-        <v>112</v>
+      <c r="E3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F3">
+        <v>2023</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4">
         <v>2022</v>
       </c>
-      <c r="F4" t="s">
-        <v>112</v>
+      <c r="E4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F4">
+        <v>2023</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5">
         <v>2022</v>
       </c>
-      <c r="F5" t="s">
-        <v>112</v>
+      <c r="E5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F5">
+        <v>2023</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6">
         <v>2022</v>
       </c>
-      <c r="F6" t="s">
-        <v>112</v>
+      <c r="E6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6">
+        <v>2023</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="D7">
         <v>2022</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F7">
+        <v>2023</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
         <v>112</v>
-      </c>
-      <c r="G7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8">
-        <v>2021</v>
-      </c>
-      <c r="E8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8">
-        <v>2022</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>113</v>
       </c>
       <c r="D9">
         <v>2021</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9">
         <v>2022</v>
@@ -4054,53 +4087,53 @@
         <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10">
         <v>2021</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10">
         <v>2022</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11">
         <v>2021</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11">
         <v>2022</v>
@@ -4112,24 +4145,24 @@
         <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12">
         <v>2021</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12">
         <v>2022</v>
@@ -4141,24 +4174,24 @@
         <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13">
         <v>2021</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13">
         <v>2022</v>
@@ -4170,24 +4203,24 @@
         <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14">
         <v>2022</v>
@@ -4199,53 +4232,53 @@
         <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15">
+        <v>2021</v>
+      </c>
+      <c r="E15" t="s">
         <v>113</v>
       </c>
-      <c r="D15">
-        <v>2018</v>
-      </c>
-      <c r="E15" t="s">
-        <v>115</v>
-      </c>
       <c r="F15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G15" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16">
         <v>2018</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16">
         <v>2021</v>
@@ -4257,24 +4290,24 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17">
         <v>2018</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17">
         <v>2021</v>
@@ -4286,53 +4319,53 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19">
         <v>2016</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19">
         <v>2018</v>
@@ -4341,27 +4374,27 @@
         <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20">
         <v>2018</v>
@@ -4370,27 +4403,27 @@
         <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21">
         <v>2018</v>
@@ -4399,42 +4432,42 @@
         <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D22">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F22">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -4442,13 +4475,13 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23">
         <v>2014</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F23">
         <v>2016</v>
@@ -4457,13 +4490,13 @@
         <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -4471,13 +4504,13 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24">
         <v>2014</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F24">
         <v>2016</v>
@@ -4486,13 +4519,13 @@
         <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -4500,13 +4533,13 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25">
         <v>2014</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F25">
         <v>2016</v>
@@ -4515,42 +4548,42 @@
         <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D26">
         <v>2014</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F26">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -4558,13 +4591,13 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27">
         <v>2014</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F27">
         <v>2015</v>
@@ -4573,13 +4606,13 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4587,13 +4620,13 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28">
         <v>2014</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F28">
         <v>2015</v>
@@ -4602,10 +4635,39 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>142</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29">
+        <v>2014</v>
+      </c>
+      <c r="E29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29">
+        <v>2015</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4621,9 +4683,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4640,9 +4702,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -4654,15 +4716,15 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4676,15 +4738,15 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4698,15 +4760,15 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -4723,9 +4785,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -4734,15 +4796,15 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -4751,27 +4813,27 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
         <v>150</v>
       </c>
-      <c r="B11" t="s">
-        <v>152</v>
-      </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -4787,12 +4849,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4803,48 +4865,48 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4860,15 +4922,15 @@
       <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="1"/>
-    <col min="3" max="3" width="47.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="47.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4882,7 +4944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -4890,46 +4952,46 @@
         <v>2022</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -4938,46 +5000,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
       <c r="D7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4993,9 +5055,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -5003,84 +5065,84 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myominnoo/Documents/GitHub/cv/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myominnoo/Library/CloudStorage/GoogleDrive-labmckinnon2019@gmail.com/My Drive/Myo/github/cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774DB14F-0EE2-514F-9E1B-A000332BD32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0922A7F-6726-A249-8851-988960C2A489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="500" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="760" windowWidth="33920" windowHeight="21100" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="395">
   <si>
     <t>Prince of Songkla University</t>
   </si>
@@ -1180,16 +1180,49 @@
     <t>Epidemiologist</t>
   </si>
   <si>
-    <t>Oct 2023 - Present</t>
-  </si>
-  <si>
     <t xml:space="preserve">October </t>
   </si>
   <si>
     <t>Waapihk Research</t>
   </si>
   <si>
-    <t>Delving into the field of indigenous health and health economics in Canada</t>
+    <t xml:space="preserve">Senior Research Associate </t>
+  </si>
+  <si>
+    <t>Apr 2024 - Present</t>
+  </si>
+  <si>
+    <t>Oct 2023 - Mar 2024</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April </t>
+  </si>
+  <si>
+    <t>Toronto, CA</t>
+  </si>
+  <si>
+    <t>Winnipeg, CA</t>
+  </si>
+  <si>
+    <t>Conducting HIV/STBBI research in underserved populations</t>
+  </si>
+  <si>
+    <t>Consistently met project deadlines, ensuring timely delivery of client deliverables at Waapihk Research.</t>
+  </si>
+  <si>
+    <t>Conducted a thorough scoping review on harm reduction interventions for underserved populations in remote rural areas, providing actionable insights for targeted interventions.</t>
+  </si>
+  <si>
+    <t>Significantly improved the accuracy and relevance of the healthcare fiscal analysis report for northern Manitoba communities through rigorous revision and updates.</t>
+  </si>
+  <si>
+    <t>Produced a comprehensive population health review report tailored to northern Manitoba communities, facilitating evidence-based decision-making for healthcare initiatives.</t>
+  </si>
+  <si>
+    <t>Options Lab (MAP Center for Urban Health Solutions @ St. Michael's Hospital)</t>
   </si>
 </sst>
 </file>
@@ -1757,9 +1790,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1797,7 +1830,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1903,7 +1936,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2045,7 +2078,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3822,10 +3855,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE00790D-A8FD-D044-B711-36915F4C9436}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3866,147 +3899,144 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D2">
-        <v>2023</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
+        <v>2024</v>
       </c>
       <c r="F2" t="s">
         <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>387</v>
       </c>
       <c r="I2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="D3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E3" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>381</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>388</v>
       </c>
       <c r="I3" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>379</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="D4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E4" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F4">
+        <v>2024</v>
+      </c>
+      <c r="G4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H4" t="s">
+        <v>388</v>
+      </c>
+      <c r="I4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5">
         <v>2023</v>
       </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>374</v>
-      </c>
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5">
-        <v>2022</v>
-      </c>
       <c r="E5" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F5">
+        <v>2024</v>
+      </c>
+      <c r="G5" t="s">
+        <v>381</v>
+      </c>
+      <c r="H5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6">
         <v>2023</v>
       </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6">
-        <v>2022</v>
-      </c>
       <c r="E6" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F6">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>381</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>388</v>
       </c>
       <c r="I6" t="s">
-        <v>137</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4032,154 +4062,154 @@
         <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>388</v>
       </c>
       <c r="I7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>374</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="D8">
         <v>2022</v>
       </c>
-      <c r="F8" t="s">
-        <v>111</v>
+      <c r="E8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F8">
+        <v>2023</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>388</v>
       </c>
       <c r="I8" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>375</v>
       </c>
       <c r="F9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>375</v>
       </c>
       <c r="F10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="I10" t="s">
-        <v>334</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>375</v>
       </c>
       <c r="F11">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>388</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D12">
-        <v>2021</v>
-      </c>
-      <c r="E12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12">
         <v>2022</v>
       </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
       <c r="G12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
@@ -4197,18 +4227,18 @@
         <v>2022</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
@@ -4226,13 +4256,13 @@
         <v>2022</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -4261,346 +4291,346 @@
         <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
         <v>112</v>
       </c>
       <c r="D16">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G16" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
         <v>112</v>
       </c>
       <c r="D17">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G17" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>112</v>
       </c>
       <c r="D18">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G18" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>339</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
         <v>112</v>
       </c>
       <c r="D19">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>112</v>
       </c>
       <c r="D20">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E20" t="s">
         <v>114</v>
       </c>
       <c r="F20">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>112</v>
       </c>
       <c r="D21">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E21" t="s">
         <v>114</v>
       </c>
       <c r="F21">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>335</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>112</v>
       </c>
       <c r="D22">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E22" t="s">
         <v>114</v>
       </c>
       <c r="F22">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D23">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E23" t="s">
         <v>114</v>
       </c>
       <c r="F23">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
         <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D24">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E24" t="s">
         <v>114</v>
       </c>
       <c r="F24">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H24" t="s">
         <v>53</v>
       </c>
       <c r="I24" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D25">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E25" t="s">
         <v>114</v>
       </c>
       <c r="F25">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
         <v>53</v>
       </c>
       <c r="I25" t="s">
-        <v>119</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D26">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E26" t="s">
         <v>114</v>
       </c>
       <c r="F26">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
         <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D27">
         <v>2014</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F27">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -4609,27 +4639,27 @@
         <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28">
         <v>2014</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F28">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G28" t="s">
         <v>34</v>
@@ -4638,27 +4668,27 @@
         <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D29">
         <v>2014</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F29">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -4667,6 +4697,122 @@
         <v>53</v>
       </c>
       <c r="I29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30">
+        <v>2014</v>
+      </c>
+      <c r="E30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30">
+        <v>2016</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31">
+        <v>2014</v>
+      </c>
+      <c r="E31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31">
+        <v>2015</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32">
+        <v>2014</v>
+      </c>
+      <c r="E32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32">
+        <v>2015</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33">
+        <v>2014</v>
+      </c>
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33">
+        <v>2015</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" t="s">
         <v>140</v>
       </c>
     </row>
